--- a/3_y_4_Concepto_tecnico_y_sectorial_2025.xlsx
+++ b/3_y_4_Concepto_tecnico_y_sectorial_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos D\Gobernación\APP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B0E10A-9BBF-4928-B994-498DD62BF19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FCD603-3D51-4DE7-B563-36CA0E575477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Concepto Sectorial" sheetId="11" r:id="rId1"/>
@@ -3583,7 +3583,7 @@
     </xf>
     <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="34" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3667,6 +3667,166 @@
     <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="167" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3676,6 +3836,121 @@
     </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="9" borderId="24" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="9" borderId="25" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="9" borderId="28" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3728,282 +4003,25 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="9" borderId="24" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="9" borderId="25" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="9" borderId="28" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4012,11 +4030,22 @@
     <xf numFmtId="166" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4048,58 +4077,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -4832,8 +4820,8 @@
   </sheetPr>
   <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36:K36"/>
+    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -4851,144 +4839,144 @@
   <sheetData>
     <row r="1" spans="1:11" customFormat="1" ht="21">
       <c r="A1" s="13"/>
-      <c r="B1" s="121" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="123"/>
+      <c r="B1" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="49"/>
     </row>
     <row r="2" spans="1:11" customFormat="1" ht="3.75" customHeight="1">
-      <c r="B2" s="75"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="77"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" customFormat="1" ht="39.75" customHeight="1">
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="126"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" customFormat="1" ht="3.75" customHeight="1">
-      <c r="B4" s="75"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="77"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" customFormat="1" ht="22.5" customHeight="1">
       <c r="B5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="116"/>
-      <c r="D5" s="117"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="118"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="119"/>
-      <c r="K5" s="120"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="46"/>
     </row>
     <row r="6" spans="1:11" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B6" s="127" t="s">
+      <c r="B6" s="58" t="s">
         <v>254</v>
       </c>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="128"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="129"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="60"/>
     </row>
     <row r="7" spans="1:11" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B7" s="127"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="129"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="60"/>
     </row>
     <row r="8" spans="1:11" customFormat="1" ht="24" customHeight="1">
       <c r="B8" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="132"/>
-      <c r="D8" s="133"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="64"/>
       <c r="E8" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="F8" s="134"/>
-      <c r="G8" s="135"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="135"/>
-      <c r="J8" s="135"/>
-      <c r="K8" s="136"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="67"/>
     </row>
     <row r="9" spans="1:11" customFormat="1" ht="37.5" customHeight="1">
       <c r="B9" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="C9" s="132"/>
-      <c r="D9" s="133"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="64"/>
       <c r="E9" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="F9" s="134"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="135"/>
-      <c r="J9" s="135"/>
-      <c r="K9" s="136"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="67"/>
     </row>
     <row r="10" spans="1:11" customFormat="1" ht="19.5" customHeight="1">
       <c r="B10" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="130"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="131"/>
-      <c r="K10" s="131"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
     </row>
     <row r="11" spans="1:11" customFormat="1" ht="3.75" customHeight="1">
       <c r="B11" s="17"/>
@@ -5006,29 +4994,29 @@
       <c r="B12" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="C12" s="112"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="61"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="38"/>
     </row>
     <row r="13" spans="1:11" customFormat="1" ht="68.25" customHeight="1">
       <c r="B13" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="C13" s="113"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="115"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="41"/>
     </row>
     <row r="14" spans="1:11" customFormat="1" ht="3.75" customHeight="1">
       <c r="B14" s="17"/>
@@ -5043,43 +5031,43 @@
       <c r="K14" s="19"/>
     </row>
     <row r="15" spans="1:11" customFormat="1" ht="15" customHeight="1">
-      <c r="B15" s="105" t="s">
+      <c r="B15" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="107"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="70"/>
     </row>
     <row r="16" spans="1:11" customFormat="1">
-      <c r="B16" s="108" t="s">
+      <c r="B16" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="109" t="s">
+      <c r="C16" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="110" t="s">
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="111"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="74"/>
     </row>
     <row r="17" spans="2:19" customFormat="1">
-      <c r="B17" s="108"/>
-      <c r="C17" s="109">
+      <c r="B17" s="71"/>
+      <c r="C17" s="72">
         <v>2024</v>
       </c>
-      <c r="D17" s="109"/>
+      <c r="D17" s="72"/>
       <c r="E17" s="20">
         <v>2025</v>
       </c>
@@ -5089,20 +5077,20 @@
       <c r="G17" s="20">
         <v>2027</v>
       </c>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="111"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="74"/>
     </row>
     <row r="18" spans="2:19" customFormat="1">
       <c r="B18" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="84">
         <f>IFERROR(SUM(C19:D27),"")</f>
         <v>0</v>
       </c>
-      <c r="D18" s="36"/>
+      <c r="D18" s="84"/>
       <c r="E18" s="34">
         <f>IFERROR(SUM(E19:E27),"")</f>
         <v>0</v>
@@ -5115,13 +5103,13 @@
         <f>IFERROR(SUM(G19:G27),"")</f>
         <v>0</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="85">
         <f>IFERROR(SUM(C18:G18),"")</f>
         <v>0</v>
       </c>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="38"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="86"/>
       <c r="L18" s="24"/>
       <c r="M18" s="24"/>
       <c r="N18" s="24"/>
@@ -5135,18 +5123,18 @@
       <c r="B19" s="31" t="s">
         <v>906</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
       <c r="E19" s="34"/>
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
-      <c r="H19" s="37">
+      <c r="H19" s="85">
         <f t="shared" ref="H19:H27" si="0">IFERROR(SUM(C19:G19),"")</f>
         <v>0</v>
       </c>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="38"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="86"/>
       <c r="L19" s="24"/>
       <c r="M19" s="24"/>
       <c r="N19" s="24"/>
@@ -5160,18 +5148,18 @@
       <c r="B20" s="31" t="s">
         <v>907</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
       <c r="E20" s="34"/>
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
-      <c r="H20" s="37">
+      <c r="H20" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="38"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="86"/>
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
       <c r="N20" s="24"/>
@@ -5185,18 +5173,18 @@
       <c r="B21" s="31" t="s">
         <v>908</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
       <c r="E21" s="34"/>
       <c r="F21" s="34"/>
       <c r="G21" s="34"/>
-      <c r="H21" s="37">
+      <c r="H21" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="38"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="86"/>
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
       <c r="N21" s="24"/>
@@ -5210,18 +5198,18 @@
       <c r="B22" s="31" t="s">
         <v>909</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
       <c r="E22" s="34"/>
       <c r="F22" s="34"/>
       <c r="G22" s="34"/>
-      <c r="H22" s="37">
+      <c r="H22" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="38"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="86"/>
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
@@ -5235,18 +5223,18 @@
       <c r="B23" s="31" t="s">
         <v>910</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
       <c r="E23" s="34"/>
       <c r="F23" s="34"/>
       <c r="G23" s="34"/>
-      <c r="H23" s="37">
+      <c r="H23" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="38"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="86"/>
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
       <c r="N23" s="24"/>
@@ -5260,18 +5248,18 @@
       <c r="B24" s="31" t="s">
         <v>911</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
       <c r="E24" s="34"/>
       <c r="F24" s="34"/>
       <c r="G24" s="34"/>
-      <c r="H24" s="37">
+      <c r="H24" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="38"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="86"/>
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
       <c r="N24" s="24"/>
@@ -5285,18 +5273,18 @@
       <c r="B25" s="31" t="s">
         <v>912</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
       <c r="E25" s="34"/>
       <c r="F25" s="34"/>
       <c r="G25" s="34"/>
-      <c r="H25" s="37">
+      <c r="H25" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="38"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="86"/>
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
       <c r="N25" s="24"/>
@@ -5310,18 +5298,18 @@
       <c r="B26" s="31" t="s">
         <v>913</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
       <c r="E26" s="34"/>
       <c r="F26" s="34"/>
       <c r="G26" s="34"/>
-      <c r="H26" s="37">
+      <c r="H26" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="38"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="86"/>
       <c r="L26" s="24"/>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
@@ -5335,18 +5323,18 @@
       <c r="B27" s="31" t="s">
         <v>914</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
       <c r="E27" s="34"/>
       <c r="F27" s="34"/>
       <c r="G27" s="34"/>
-      <c r="H27" s="37">
+      <c r="H27" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="38"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="86"/>
       <c r="L27" s="24"/>
       <c r="M27" s="24"/>
       <c r="N27" s="24"/>
@@ -5360,62 +5348,62 @@
       <c r="B28" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
       <c r="E28" s="34"/>
       <c r="F28" s="34"/>
       <c r="G28" s="34"/>
-      <c r="H28" s="37">
+      <c r="H28" s="85">
         <f>IFERROR(SUM(C28:G28),"")</f>
         <v>0</v>
       </c>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="38"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="86"/>
     </row>
     <row r="29" spans="2:19" customFormat="1">
       <c r="B29" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
       <c r="E29" s="34"/>
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
-      <c r="H29" s="37">
+      <c r="H29" s="85">
         <f>IFERROR(SUM(C29:G29),"")</f>
         <v>0</v>
       </c>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="38"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="86"/>
     </row>
     <row r="30" spans="2:19" customFormat="1">
       <c r="B30" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
       <c r="E30" s="34"/>
       <c r="F30" s="34"/>
       <c r="G30" s="34"/>
-      <c r="H30" s="37">
+      <c r="H30" s="85">
         <f>IFERROR(SUM(C30:G30),"")</f>
         <v>0</v>
       </c>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="38"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="86"/>
     </row>
     <row r="31" spans="2:19" customFormat="1">
       <c r="B31" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="104">
+      <c r="C31" s="87">
         <f>IFERROR(SUM(C18,C28:D30),"")</f>
         <v>0</v>
       </c>
-      <c r="D31" s="104"/>
+      <c r="D31" s="87"/>
       <c r="E31" s="35">
         <f>IFERROR(SUM(E18,E28:E30),"")</f>
         <v>0</v>
@@ -5428,385 +5416,385 @@
         <f t="shared" ref="G31" si="1">IFERROR(SUM(G18,G28:G30),"")</f>
         <v>0</v>
       </c>
-      <c r="H31" s="37">
+      <c r="H31" s="85">
         <f>IFERROR(SUM(C31:G31),"")</f>
         <v>0</v>
       </c>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="38"/>
+      <c r="I31" s="85"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="86"/>
     </row>
     <row r="32" spans="2:19" customFormat="1" ht="3.75" customHeight="1">
-      <c r="B32" s="75"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="77"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="52"/>
     </row>
     <row r="33" spans="1:11" customFormat="1" ht="9.75" customHeight="1">
-      <c r="A33" s="95"/>
-      <c r="B33" s="96" t="s">
+      <c r="A33" s="75"/>
+      <c r="B33" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="97"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="97"/>
-      <c r="H33" s="98" t="s">
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="I33" s="99"/>
-      <c r="J33" s="99"/>
-      <c r="K33" s="100"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="80"/>
     </row>
     <row r="34" spans="1:11" customFormat="1" ht="8.25" customHeight="1">
-      <c r="A34" s="95"/>
-      <c r="B34" s="96"/>
-      <c r="C34" s="97"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="97"/>
-      <c r="H34" s="101"/>
-      <c r="I34" s="102"/>
-      <c r="J34" s="102"/>
-      <c r="K34" s="103"/>
+      <c r="A34" s="75"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="82"/>
+      <c r="K34" s="83"/>
     </row>
     <row r="35" spans="1:11" s="23" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B35" s="90" t="s">
+      <c r="B35" s="88" t="s">
         <v>246</v>
       </c>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="93"/>
-      <c r="J35" s="93"/>
-      <c r="K35" s="94"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="91"/>
+      <c r="J35" s="91"/>
+      <c r="K35" s="92"/>
     </row>
     <row r="36" spans="1:11" s="23" customFormat="1" ht="26.25" customHeight="1">
-      <c r="B36" s="90" t="s">
+      <c r="B36" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="91"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="91"/>
-      <c r="F36" s="91"/>
-      <c r="G36" s="91"/>
-      <c r="H36" s="92"/>
-      <c r="I36" s="93"/>
-      <c r="J36" s="93"/>
-      <c r="K36" s="94"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="91"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="92"/>
     </row>
     <row r="37" spans="1:11" s="23" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B37" s="90" t="s">
+      <c r="B37" s="88" t="s">
         <v>247</v>
       </c>
-      <c r="C37" s="91"/>
-      <c r="D37" s="91"/>
-      <c r="E37" s="91"/>
-      <c r="F37" s="91"/>
-      <c r="G37" s="91"/>
-      <c r="H37" s="92"/>
-      <c r="I37" s="93"/>
-      <c r="J37" s="93"/>
-      <c r="K37" s="94"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="91"/>
+      <c r="J37" s="91"/>
+      <c r="K37" s="92"/>
     </row>
     <row r="38" spans="1:11" s="23" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B38" s="90" t="s">
+      <c r="B38" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="91"/>
-      <c r="D38" s="91"/>
-      <c r="E38" s="91"/>
-      <c r="F38" s="91"/>
-      <c r="G38" s="91"/>
-      <c r="H38" s="92"/>
-      <c r="I38" s="93"/>
-      <c r="J38" s="93"/>
-      <c r="K38" s="94"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="89"/>
+      <c r="G38" s="89"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="91"/>
+      <c r="J38" s="91"/>
+      <c r="K38" s="92"/>
     </row>
     <row r="39" spans="1:11" s="23" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B39" s="90" t="s">
+      <c r="B39" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="91"/>
-      <c r="D39" s="91"/>
-      <c r="E39" s="91"/>
-      <c r="F39" s="91"/>
-      <c r="G39" s="91"/>
-      <c r="H39" s="92"/>
-      <c r="I39" s="93"/>
-      <c r="J39" s="93"/>
-      <c r="K39" s="94"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="91"/>
+      <c r="J39" s="91"/>
+      <c r="K39" s="92"/>
     </row>
     <row r="40" spans="1:11" s="23" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B40" s="90" t="s">
+      <c r="B40" s="88" t="s">
         <v>249</v>
       </c>
-      <c r="C40" s="91"/>
-      <c r="D40" s="91"/>
-      <c r="E40" s="91"/>
-      <c r="F40" s="91"/>
-      <c r="G40" s="91"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="93"/>
-      <c r="J40" s="93"/>
-      <c r="K40" s="94"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="90"/>
+      <c r="I40" s="91"/>
+      <c r="J40" s="91"/>
+      <c r="K40" s="92"/>
     </row>
     <row r="41" spans="1:11" s="23" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B41" s="90" t="s">
+      <c r="B41" s="88" t="s">
         <v>250</v>
       </c>
-      <c r="C41" s="91"/>
-      <c r="D41" s="91"/>
-      <c r="E41" s="91"/>
-      <c r="F41" s="91"/>
-      <c r="G41" s="91"/>
-      <c r="H41" s="92"/>
-      <c r="I41" s="93"/>
-      <c r="J41" s="93"/>
-      <c r="K41" s="94"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="89"/>
+      <c r="G41" s="89"/>
+      <c r="H41" s="90"/>
+      <c r="I41" s="91"/>
+      <c r="J41" s="91"/>
+      <c r="K41" s="92"/>
     </row>
     <row r="42" spans="1:11" s="23" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B42" s="90" t="s">
+      <c r="B42" s="88" t="s">
         <v>248</v>
       </c>
-      <c r="C42" s="91"/>
-      <c r="D42" s="91"/>
-      <c r="E42" s="91"/>
-      <c r="F42" s="91"/>
-      <c r="G42" s="91"/>
-      <c r="H42" s="92"/>
-      <c r="I42" s="93"/>
-      <c r="J42" s="93"/>
-      <c r="K42" s="94"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="89"/>
+      <c r="G42" s="89"/>
+      <c r="H42" s="90"/>
+      <c r="I42" s="91"/>
+      <c r="J42" s="91"/>
+      <c r="K42" s="92"/>
     </row>
     <row r="43" spans="1:11" s="23" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B43" s="90" t="s">
+      <c r="B43" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="91"/>
-      <c r="D43" s="91"/>
-      <c r="E43" s="91"/>
-      <c r="F43" s="91"/>
-      <c r="G43" s="91"/>
-      <c r="H43" s="92"/>
-      <c r="I43" s="93"/>
-      <c r="J43" s="93"/>
-      <c r="K43" s="94"/>
+      <c r="C43" s="89"/>
+      <c r="D43" s="89"/>
+      <c r="E43" s="89"/>
+      <c r="F43" s="89"/>
+      <c r="G43" s="89"/>
+      <c r="H43" s="90"/>
+      <c r="I43" s="91"/>
+      <c r="J43" s="91"/>
+      <c r="K43" s="92"/>
     </row>
     <row r="44" spans="1:11" customFormat="1" ht="6.75" customHeight="1">
-      <c r="B44" s="75"/>
-      <c r="C44" s="76"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="76"/>
-      <c r="F44" s="76"/>
-      <c r="G44" s="76"/>
-      <c r="H44" s="76"/>
-      <c r="I44" s="76"/>
-      <c r="J44" s="76"/>
-      <c r="K44" s="77"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="52"/>
     </row>
     <row r="45" spans="1:11" customFormat="1" ht="21" customHeight="1">
-      <c r="B45" s="78" t="s">
+      <c r="B45" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="79"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="79"/>
-      <c r="F45" s="79"/>
-      <c r="G45" s="79"/>
-      <c r="H45" s="79"/>
-      <c r="I45" s="79"/>
-      <c r="J45" s="79"/>
-      <c r="K45" s="80"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="93"/>
     </row>
     <row r="46" spans="1:11" customFormat="1" ht="3.75" customHeight="1" thickBot="1">
-      <c r="B46" s="81"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="82"/>
-      <c r="G46" s="82"/>
-      <c r="H46" s="82"/>
-      <c r="I46" s="82"/>
-      <c r="J46" s="82"/>
-      <c r="K46" s="83"/>
+      <c r="B46" s="94"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="95"/>
+      <c r="G46" s="95"/>
+      <c r="H46" s="95"/>
+      <c r="I46" s="95"/>
+      <c r="J46" s="95"/>
+      <c r="K46" s="96"/>
     </row>
     <row r="47" spans="1:11" customFormat="1" ht="41.25" customHeight="1">
-      <c r="B47" s="84" t="s">
+      <c r="B47" s="97" t="s">
         <v>245</v>
       </c>
-      <c r="C47" s="85"/>
-      <c r="D47" s="86"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="88"/>
-      <c r="G47" s="87"/>
-      <c r="H47" s="89"/>
-      <c r="I47" s="89"/>
-      <c r="J47" s="89"/>
-      <c r="K47" s="88"/>
+      <c r="C47" s="98"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="100"/>
+      <c r="F47" s="101"/>
+      <c r="G47" s="100"/>
+      <c r="H47" s="102"/>
+      <c r="I47" s="102"/>
+      <c r="J47" s="102"/>
+      <c r="K47" s="101"/>
     </row>
     <row r="48" spans="1:11" customFormat="1" ht="39.75" customHeight="1">
-      <c r="B48" s="57" t="s">
+      <c r="B48" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="58"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="62"/>
-      <c r="I48" s="62"/>
-      <c r="J48" s="62"/>
-      <c r="K48" s="61"/>
+      <c r="C48" s="107"/>
+      <c r="D48" s="108"/>
+      <c r="E48" s="109"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="109"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="38"/>
     </row>
     <row r="49" spans="2:11" customFormat="1" ht="54.75" customHeight="1">
-      <c r="B49" s="57" t="s">
+      <c r="B49" s="106" t="s">
         <v>895</v>
       </c>
-      <c r="C49" s="58"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="62"/>
-      <c r="K49" s="61"/>
+      <c r="C49" s="107"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="109"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="109"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="38"/>
     </row>
     <row r="50" spans="2:11" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B50" s="63" t="s">
+      <c r="B50" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="C50" s="64"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="66">
+      <c r="C50" s="111"/>
+      <c r="D50" s="112"/>
+      <c r="E50" s="113">
         <v>0</v>
       </c>
-      <c r="F50" s="67"/>
-      <c r="G50" s="66">
+      <c r="F50" s="114"/>
+      <c r="G50" s="113">
         <v>0</v>
       </c>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68"/>
-      <c r="J50" s="68"/>
-      <c r="K50" s="67"/>
+      <c r="H50" s="115"/>
+      <c r="I50" s="115"/>
+      <c r="J50" s="115"/>
+      <c r="K50" s="114"/>
     </row>
     <row r="51" spans="2:11" customFormat="1" ht="8.25" customHeight="1">
-      <c r="B51" s="69"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="70"/>
-      <c r="H51" s="70"/>
-      <c r="I51" s="70"/>
-      <c r="J51" s="70"/>
-      <c r="K51" s="71"/>
+      <c r="B51" s="116"/>
+      <c r="C51" s="117"/>
+      <c r="D51" s="117"/>
+      <c r="E51" s="117"/>
+      <c r="F51" s="117"/>
+      <c r="G51" s="117"/>
+      <c r="H51" s="117"/>
+      <c r="I51" s="117"/>
+      <c r="J51" s="117"/>
+      <c r="K51" s="118"/>
     </row>
     <row r="52" spans="2:11" customFormat="1" ht="15.75">
-      <c r="B52" s="72" t="s">
+      <c r="B52" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="73"/>
-      <c r="D52" s="73"/>
-      <c r="E52" s="73"/>
-      <c r="F52" s="73"/>
-      <c r="G52" s="73"/>
-      <c r="H52" s="73"/>
-      <c r="I52" s="73"/>
-      <c r="J52" s="73"/>
-      <c r="K52" s="74"/>
+      <c r="C52" s="120"/>
+      <c r="D52" s="120"/>
+      <c r="E52" s="120"/>
+      <c r="F52" s="120"/>
+      <c r="G52" s="120"/>
+      <c r="H52" s="120"/>
+      <c r="I52" s="120"/>
+      <c r="J52" s="120"/>
+      <c r="K52" s="121"/>
     </row>
     <row r="53" spans="2:11" customFormat="1" ht="3.75" customHeight="1">
-      <c r="B53" s="54"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="55"/>
-      <c r="H53" s="55"/>
-      <c r="I53" s="55"/>
-      <c r="J53" s="55"/>
-      <c r="K53" s="56"/>
+      <c r="B53" s="103"/>
+      <c r="C53" s="104"/>
+      <c r="D53" s="104"/>
+      <c r="E53" s="104"/>
+      <c r="F53" s="104"/>
+      <c r="G53" s="104"/>
+      <c r="H53" s="104"/>
+      <c r="I53" s="104"/>
+      <c r="J53" s="104"/>
+      <c r="K53" s="105"/>
     </row>
     <row r="54" spans="2:11" customFormat="1" ht="15.75">
-      <c r="B54" s="39" t="s">
+      <c r="B54" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="40"/>
-      <c r="I54" s="40"/>
-      <c r="J54" s="40"/>
-      <c r="K54" s="41"/>
+      <c r="C54" s="123"/>
+      <c r="D54" s="123"/>
+      <c r="E54" s="123"/>
+      <c r="F54" s="123"/>
+      <c r="G54" s="123"/>
+      <c r="H54" s="123"/>
+      <c r="I54" s="123"/>
+      <c r="J54" s="123"/>
+      <c r="K54" s="124"/>
     </row>
     <row r="55" spans="2:11" customFormat="1" ht="3.75" customHeight="1">
-      <c r="B55" s="42"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="43"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="43"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="43"/>
-      <c r="K55" s="44"/>
+      <c r="B55" s="125"/>
+      <c r="C55" s="126"/>
+      <c r="D55" s="126"/>
+      <c r="E55" s="126"/>
+      <c r="F55" s="126"/>
+      <c r="G55" s="126"/>
+      <c r="H55" s="126"/>
+      <c r="I55" s="126"/>
+      <c r="J55" s="126"/>
+      <c r="K55" s="127"/>
     </row>
     <row r="56" spans="2:11" customFormat="1" ht="15.75">
-      <c r="B56" s="45" t="s">
+      <c r="B56" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="46"/>
-      <c r="D56" s="46"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="46"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="46"/>
-      <c r="I56" s="46"/>
-      <c r="J56" s="46"/>
-      <c r="K56" s="47"/>
+      <c r="C56" s="129"/>
+      <c r="D56" s="129"/>
+      <c r="E56" s="129"/>
+      <c r="F56" s="129"/>
+      <c r="G56" s="129"/>
+      <c r="H56" s="129"/>
+      <c r="I56" s="129"/>
+      <c r="J56" s="129"/>
+      <c r="K56" s="130"/>
     </row>
     <row r="57" spans="2:11" customFormat="1" ht="43.5" customHeight="1">
-      <c r="B57" s="48" t="s">
+      <c r="B57" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="49"/>
-      <c r="J57" s="49"/>
-      <c r="K57" s="50"/>
+      <c r="C57" s="132"/>
+      <c r="D57" s="132"/>
+      <c r="E57" s="132"/>
+      <c r="F57" s="132"/>
+      <c r="G57" s="132"/>
+      <c r="H57" s="132"/>
+      <c r="I57" s="132"/>
+      <c r="J57" s="132"/>
+      <c r="K57" s="133"/>
     </row>
     <row r="58" spans="2:11" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B58" s="51" t="s">
+      <c r="B58" s="134" t="s">
         <v>915</v>
       </c>
-      <c r="C58" s="52"/>
-      <c r="D58" s="52"/>
-      <c r="E58" s="52"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="52"/>
-      <c r="H58" s="52"/>
-      <c r="I58" s="52"/>
-      <c r="J58" s="52"/>
-      <c r="K58" s="53"/>
+      <c r="C58" s="135"/>
+      <c r="D58" s="135"/>
+      <c r="E58" s="135"/>
+      <c r="F58" s="135"/>
+      <c r="G58" s="135"/>
+      <c r="H58" s="135"/>
+      <c r="I58" s="135"/>
+      <c r="J58" s="135"/>
+      <c r="K58" s="136"/>
     </row>
     <row r="59" spans="2:11" customFormat="1" ht="8.25" customHeight="1"/>
     <row r="60" spans="2:11" customFormat="1"/>
@@ -5825,6 +5813,84 @@
     <row r="74" s="24" customFormat="1"/>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="B54:K54"/>
+    <mergeCell ref="B55:K55"/>
+    <mergeCell ref="B56:K56"/>
+    <mergeCell ref="B57:K57"/>
+    <mergeCell ref="B58:K58"/>
+    <mergeCell ref="B53:K53"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:K48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:K49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:K50"/>
+    <mergeCell ref="B51:K51"/>
+    <mergeCell ref="B52:K52"/>
+    <mergeCell ref="B44:K44"/>
+    <mergeCell ref="B45:K45"/>
+    <mergeCell ref="B46:K46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:K47"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:G34"/>
+    <mergeCell ref="H33:K34"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="C12:K12"/>
     <mergeCell ref="C13:K13"/>
     <mergeCell ref="C5:D5"/>
@@ -5840,84 +5906,6 @@
     <mergeCell ref="F8:K8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="F9:K9"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:K17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:G34"/>
-    <mergeCell ref="H33:K34"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="B44:K44"/>
-    <mergeCell ref="B45:K45"/>
-    <mergeCell ref="B46:K46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:K47"/>
-    <mergeCell ref="B53:K53"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:K48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:K49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:K50"/>
-    <mergeCell ref="B51:K51"/>
-    <mergeCell ref="B52:K52"/>
-    <mergeCell ref="B54:K54"/>
-    <mergeCell ref="B55:K55"/>
-    <mergeCell ref="B56:K56"/>
-    <mergeCell ref="B57:K57"/>
-    <mergeCell ref="B58:K58"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="H26:K26"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Nombre de la meta de producto" prompt="Describa el nombre de la meta, según el plan de desarrollo" sqref="C11 C13:C14" xr:uid="{0C96B584-9C49-4C00-B332-FB054199D894}"/>
@@ -5957,8 +5945,8 @@
   </sheetPr>
   <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35:K35"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34:K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -5982,18 +5970,18 @@
   <sheetData>
     <row r="1" spans="1:19" customFormat="1" ht="21">
       <c r="A1" s="13"/>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="47" t="s">
         <v>255</v>
       </c>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="123"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="49"/>
       <c r="L1" s="24"/>
       <c r="M1" s="24"/>
       <c r="N1" s="24"/>
@@ -6004,16 +5992,16 @@
       <c r="S1" s="24"/>
     </row>
     <row r="2" spans="1:19" customFormat="1" ht="3.75" customHeight="1">
-      <c r="B2" s="75"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="77"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
       <c r="L2" s="24"/>
       <c r="M2" s="24"/>
       <c r="N2" s="24"/>
@@ -6024,21 +6012,21 @@
       <c r="S2" s="24"/>
     </row>
     <row r="3" spans="1:19" customFormat="1" ht="39.75" customHeight="1">
-      <c r="B3" s="145" t="s">
+      <c r="B3" s="154" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="146"/>
-      <c r="D3" s="147" t="str">
+      <c r="C3" s="155"/>
+      <c r="D3" s="156" t="str">
         <f>IF('Concepto Sectorial'!D3=0,"",'Concepto Sectorial'!D3)</f>
         <v/>
       </c>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="147"/>
-      <c r="J3" s="147"/>
-      <c r="K3" s="148"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="157"/>
       <c r="L3" s="24"/>
       <c r="M3" s="24"/>
       <c r="N3" s="24"/>
@@ -6049,16 +6037,16 @@
       <c r="S3" s="24"/>
     </row>
     <row r="4" spans="1:19" customFormat="1" ht="3.75" customHeight="1">
-      <c r="B4" s="75"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="77"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
       <c r="N4" s="24"/>
@@ -6072,23 +6060,23 @@
       <c r="B5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="132" t="str">
+      <c r="C5" s="63" t="str">
         <f>IF('Concepto Sectorial'!C5=0,"",'Concepto Sectorial'!C5)</f>
         <v/>
       </c>
-      <c r="D5" s="133"/>
+      <c r="D5" s="64"/>
       <c r="E5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="149" t="str">
+      <c r="F5" s="158" t="str">
         <f>IF('Concepto Sectorial'!F5=0,"",'Concepto Sectorial'!F5)</f>
         <v/>
       </c>
-      <c r="G5" s="150"/>
-      <c r="H5" s="150"/>
-      <c r="I5" s="150"/>
-      <c r="J5" s="150"/>
-      <c r="K5" s="151"/>
+      <c r="G5" s="159"/>
+      <c r="H5" s="159"/>
+      <c r="I5" s="159"/>
+      <c r="J5" s="159"/>
+      <c r="K5" s="160"/>
       <c r="L5" s="24"/>
       <c r="M5" s="24"/>
       <c r="N5" s="24"/>
@@ -6102,23 +6090,23 @@
       <c r="B6" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="132" t="str">
+      <c r="C6" s="63" t="str">
         <f>IF('Concepto Sectorial'!C8=0,"",'Concepto Sectorial'!C8)</f>
         <v/>
       </c>
-      <c r="D6" s="133"/>
+      <c r="D6" s="64"/>
       <c r="E6" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="F6" s="142" t="str">
+      <c r="F6" s="151" t="str">
         <f>IF('Concepto Sectorial'!F8=0,"",'Concepto Sectorial'!F8)</f>
         <v/>
       </c>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="143"/>
-      <c r="J6" s="143"/>
-      <c r="K6" s="144"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="152"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="152"/>
+      <c r="K6" s="153"/>
       <c r="L6" s="24"/>
       <c r="M6" s="24"/>
       <c r="N6" s="24"/>
@@ -6132,23 +6120,23 @@
       <c r="B7" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="C7" s="132" t="str">
+      <c r="C7" s="63" t="str">
         <f>IF('Concepto Sectorial'!C9=0,"",'Concepto Sectorial'!C9)</f>
         <v/>
       </c>
-      <c r="D7" s="133"/>
+      <c r="D7" s="64"/>
       <c r="E7" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="F7" s="142" t="str">
+      <c r="F7" s="151" t="str">
         <f>IF('Concepto Sectorial'!F9=0,"",'Concepto Sectorial'!F9)</f>
         <v/>
       </c>
-      <c r="G7" s="143"/>
-      <c r="H7" s="143"/>
-      <c r="I7" s="143"/>
-      <c r="J7" s="143"/>
-      <c r="K7" s="144"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="152"/>
+      <c r="I7" s="152"/>
+      <c r="J7" s="152"/>
+      <c r="K7" s="153"/>
       <c r="L7" s="24"/>
       <c r="M7" s="24"/>
       <c r="N7" s="24"/>
@@ -6159,16 +6147,16 @@
       <c r="S7" s="24"/>
     </row>
     <row r="8" spans="1:19" customFormat="1" ht="3.75" customHeight="1">
-      <c r="B8" s="75"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="77"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="52"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
       <c r="N8" s="24"/>
@@ -6182,18 +6170,18 @@
       <c r="B9" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="152" t="str">
+      <c r="C9" s="149" t="str">
         <f>IF('Concepto Sectorial'!C10=0,"",'Concepto Sectorial'!C10)</f>
         <v/>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="153"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="153"/>
-      <c r="K9" s="153"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="150"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="150"/>
+      <c r="I9" s="150"/>
+      <c r="J9" s="150"/>
+      <c r="K9" s="150"/>
     </row>
     <row r="10" spans="1:19" customFormat="1" ht="3.75" customHeight="1">
       <c r="B10" s="17"/>
@@ -6211,35 +6199,35 @@
       <c r="B11" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="C11" s="152" t="e">
+      <c r="C11" s="149" t="e">
         <f>IF('Concepto Sectorial'!#REF!=0,"",'Concepto Sectorial'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="D11" s="153"/>
-      <c r="E11" s="153"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="153"/>
-      <c r="I11" s="153"/>
-      <c r="J11" s="153"/>
-      <c r="K11" s="153"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="150"/>
+      <c r="K11" s="150"/>
     </row>
     <row r="12" spans="1:19" customFormat="1" ht="68.25" customHeight="1">
       <c r="B12" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="C12" s="113" t="e">
+      <c r="C12" s="39" t="e">
         <f>IF('Concepto Sectorial'!#REF!=0,"",'Concepto Sectorial'!#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="115"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="41"/>
     </row>
     <row r="13" spans="1:19" customFormat="1" ht="3.6" customHeight="1">
       <c r="B13" s="17"/>
@@ -6254,18 +6242,18 @@
       <c r="K13" s="19"/>
     </row>
     <row r="14" spans="1:19" customFormat="1" ht="15" customHeight="1">
-      <c r="B14" s="105" t="s">
+      <c r="B14" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="107"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="70"/>
       <c r="L14" s="24"/>
       <c r="M14" s="24"/>
       <c r="N14" s="24"/>
@@ -6276,22 +6264,22 @@
       <c r="S14" s="24"/>
     </row>
     <row r="15" spans="1:19" customFormat="1">
-      <c r="B15" s="108" t="s">
+      <c r="B15" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="109" t="s">
+      <c r="C15" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="110" t="s">
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="111"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="74"/>
       <c r="L15" s="24"/>
       <c r="M15" s="24"/>
       <c r="N15" s="24"/>
@@ -6302,11 +6290,11 @@
       <c r="S15" s="24"/>
     </row>
     <row r="16" spans="1:19" customFormat="1">
-      <c r="B16" s="108"/>
-      <c r="C16" s="109">
+      <c r="B16" s="71"/>
+      <c r="C16" s="72">
         <v>2024</v>
       </c>
-      <c r="D16" s="109"/>
+      <c r="D16" s="72"/>
       <c r="E16" s="20">
         <v>2025</v>
       </c>
@@ -6316,10 +6304,10 @@
       <c r="G16" s="20">
         <v>2027</v>
       </c>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="111"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="74"/>
       <c r="L16" s="24"/>
       <c r="M16" s="24"/>
       <c r="N16" s="24"/>
@@ -6333,11 +6321,11 @@
       <c r="B17" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="154">
+      <c r="C17" s="143">
         <f>IFERROR(SUM(C18:D26),"")</f>
         <v>0</v>
       </c>
-      <c r="D17" s="154"/>
+      <c r="D17" s="143"/>
       <c r="E17" s="32">
         <f>IFERROR(SUM(E18:E26),"")</f>
         <v>0</v>
@@ -6350,13 +6338,13 @@
         <f>IFERROR(SUM(G18:G26),"")</f>
         <v>0</v>
       </c>
-      <c r="H17" s="138">
+      <c r="H17" s="144">
         <f>IFERROR(SUM(C17:G17),"")</f>
         <v>0</v>
       </c>
-      <c r="I17" s="138"/>
-      <c r="J17" s="138"/>
-      <c r="K17" s="139"/>
+      <c r="I17" s="144"/>
+      <c r="J17" s="144"/>
+      <c r="K17" s="145"/>
       <c r="L17" s="24"/>
       <c r="M17" s="24"/>
       <c r="N17" s="24"/>
@@ -6370,18 +6358,18 @@
       <c r="B18" s="31" t="s">
         <v>906</v>
       </c>
-      <c r="C18" s="140"/>
-      <c r="D18" s="141"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="148"/>
       <c r="E18" s="33"/>
       <c r="F18" s="33"/>
       <c r="G18" s="33"/>
-      <c r="H18" s="138">
+      <c r="H18" s="144">
         <f t="shared" ref="H18:H26" si="0">IFERROR(SUM(C18:G18),"")</f>
         <v>0</v>
       </c>
-      <c r="I18" s="138"/>
-      <c r="J18" s="138"/>
-      <c r="K18" s="139"/>
+      <c r="I18" s="144"/>
+      <c r="J18" s="144"/>
+      <c r="K18" s="145"/>
       <c r="L18" s="24"/>
       <c r="M18" s="24"/>
       <c r="N18" s="24"/>
@@ -6395,18 +6383,18 @@
       <c r="B19" s="31" t="s">
         <v>907</v>
       </c>
-      <c r="C19" s="140"/>
-      <c r="D19" s="141"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="148"/>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
-      <c r="H19" s="138">
+      <c r="H19" s="144">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I19" s="138"/>
-      <c r="J19" s="138"/>
-      <c r="K19" s="139"/>
+      <c r="I19" s="144"/>
+      <c r="J19" s="144"/>
+      <c r="K19" s="145"/>
       <c r="L19" s="24"/>
       <c r="M19" s="24"/>
       <c r="N19" s="24"/>
@@ -6420,18 +6408,18 @@
       <c r="B20" s="31" t="s">
         <v>908</v>
       </c>
-      <c r="C20" s="140"/>
-      <c r="D20" s="141"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="148"/>
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
-      <c r="H20" s="138">
+      <c r="H20" s="144">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I20" s="138"/>
-      <c r="J20" s="138"/>
-      <c r="K20" s="139"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="144"/>
+      <c r="K20" s="145"/>
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
       <c r="N20" s="24"/>
@@ -6445,18 +6433,18 @@
       <c r="B21" s="31" t="s">
         <v>909</v>
       </c>
-      <c r="C21" s="137"/>
-      <c r="D21" s="137"/>
+      <c r="C21" s="146"/>
+      <c r="D21" s="146"/>
       <c r="E21" s="33"/>
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
-      <c r="H21" s="138">
+      <c r="H21" s="144">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I21" s="138"/>
-      <c r="J21" s="138"/>
-      <c r="K21" s="139"/>
+      <c r="I21" s="144"/>
+      <c r="J21" s="144"/>
+      <c r="K21" s="145"/>
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
       <c r="N21" s="24"/>
@@ -6470,18 +6458,18 @@
       <c r="B22" s="31" t="s">
         <v>910</v>
       </c>
-      <c r="C22" s="137"/>
-      <c r="D22" s="137"/>
+      <c r="C22" s="146"/>
+      <c r="D22" s="146"/>
       <c r="E22" s="33"/>
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
-      <c r="H22" s="138">
+      <c r="H22" s="144">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I22" s="138"/>
-      <c r="J22" s="138"/>
-      <c r="K22" s="139"/>
+      <c r="I22" s="144"/>
+      <c r="J22" s="144"/>
+      <c r="K22" s="145"/>
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
       <c r="N22" s="24"/>
@@ -6495,18 +6483,18 @@
       <c r="B23" s="31" t="s">
         <v>911</v>
       </c>
-      <c r="C23" s="137"/>
-      <c r="D23" s="137"/>
+      <c r="C23" s="146"/>
+      <c r="D23" s="146"/>
       <c r="E23" s="33"/>
       <c r="F23" s="33"/>
       <c r="G23" s="33"/>
-      <c r="H23" s="138">
+      <c r="H23" s="144">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I23" s="138"/>
-      <c r="J23" s="138"/>
-      <c r="K23" s="139"/>
+      <c r="I23" s="144"/>
+      <c r="J23" s="144"/>
+      <c r="K23" s="145"/>
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
       <c r="N23" s="24"/>
@@ -6520,18 +6508,18 @@
       <c r="B24" s="31" t="s">
         <v>912</v>
       </c>
-      <c r="C24" s="137"/>
-      <c r="D24" s="137"/>
+      <c r="C24" s="146"/>
+      <c r="D24" s="146"/>
       <c r="E24" s="33"/>
       <c r="F24" s="33"/>
       <c r="G24" s="33"/>
-      <c r="H24" s="138">
+      <c r="H24" s="144">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I24" s="138"/>
-      <c r="J24" s="138"/>
-      <c r="K24" s="139"/>
+      <c r="I24" s="144"/>
+      <c r="J24" s="144"/>
+      <c r="K24" s="145"/>
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
       <c r="N24" s="24"/>
@@ -6545,18 +6533,18 @@
       <c r="B25" s="31" t="s">
         <v>913</v>
       </c>
-      <c r="C25" s="137"/>
-      <c r="D25" s="137"/>
+      <c r="C25" s="146"/>
+      <c r="D25" s="146"/>
       <c r="E25" s="33"/>
       <c r="F25" s="33"/>
       <c r="G25" s="33"/>
-      <c r="H25" s="138">
+      <c r="H25" s="144">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I25" s="138"/>
-      <c r="J25" s="138"/>
-      <c r="K25" s="139"/>
+      <c r="I25" s="144"/>
+      <c r="J25" s="144"/>
+      <c r="K25" s="145"/>
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
       <c r="N25" s="24"/>
@@ -6570,18 +6558,18 @@
       <c r="B26" s="31" t="s">
         <v>914</v>
       </c>
-      <c r="C26" s="137"/>
-      <c r="D26" s="137"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="146"/>
       <c r="E26" s="33"/>
       <c r="F26" s="33"/>
       <c r="G26" s="33"/>
-      <c r="H26" s="138">
+      <c r="H26" s="144">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I26" s="138"/>
-      <c r="J26" s="138"/>
-      <c r="K26" s="139"/>
+      <c r="I26" s="144"/>
+      <c r="J26" s="144"/>
+      <c r="K26" s="145"/>
       <c r="L26" s="24"/>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
@@ -6595,11 +6583,11 @@
       <c r="B27" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="137" t="str">
+      <c r="C27" s="146" t="str">
         <f>IF('Concepto Sectorial'!C28=0,"",'Concepto Sectorial'!C28)</f>
         <v/>
       </c>
-      <c r="D27" s="137"/>
+      <c r="D27" s="146"/>
       <c r="E27" s="33" t="str">
         <f>IF('Concepto Sectorial'!E28=0,"",'Concepto Sectorial'!E28)</f>
         <v/>
@@ -6612,13 +6600,13 @@
         <f>IF('Concepto Sectorial'!G28=0,"",'Concepto Sectorial'!G28)</f>
         <v/>
       </c>
-      <c r="H27" s="138">
+      <c r="H27" s="144">
         <f>IFERROR(SUM(C27:G27),"")</f>
         <v>0</v>
       </c>
-      <c r="I27" s="138"/>
-      <c r="J27" s="138"/>
-      <c r="K27" s="139"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="144"/>
+      <c r="K27" s="145"/>
       <c r="L27" s="24"/>
       <c r="M27" s="24"/>
       <c r="N27" s="24"/>
@@ -6632,11 +6620,11 @@
       <c r="B28" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="137" t="str">
+      <c r="C28" s="146" t="str">
         <f>IF('Concepto Sectorial'!C29=0,"",'Concepto Sectorial'!C29)</f>
         <v/>
       </c>
-      <c r="D28" s="137"/>
+      <c r="D28" s="146"/>
       <c r="E28" s="33" t="str">
         <f>IF('Concepto Sectorial'!E29=0,"",'Concepto Sectorial'!E29)</f>
         <v/>
@@ -6649,13 +6637,13 @@
         <f>IF('Concepto Sectorial'!G29=0,"",'Concepto Sectorial'!G29)</f>
         <v/>
       </c>
-      <c r="H28" s="138">
+      <c r="H28" s="144">
         <f>IFERROR(SUM(C28:G28),"")</f>
         <v>0</v>
       </c>
-      <c r="I28" s="138"/>
-      <c r="J28" s="138"/>
-      <c r="K28" s="139"/>
+      <c r="I28" s="144"/>
+      <c r="J28" s="144"/>
+      <c r="K28" s="145"/>
       <c r="L28" s="24"/>
       <c r="M28" s="24"/>
       <c r="N28" s="24"/>
@@ -6669,11 +6657,11 @@
       <c r="B29" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="137" t="str">
+      <c r="C29" s="146" t="str">
         <f>IF('Concepto Sectorial'!C30=0,"",'Concepto Sectorial'!C30)</f>
         <v/>
       </c>
-      <c r="D29" s="137"/>
+      <c r="D29" s="146"/>
       <c r="E29" s="33" t="str">
         <f>IF('Concepto Sectorial'!E30=0,"",'Concepto Sectorial'!E30)</f>
         <v/>
@@ -6686,13 +6674,13 @@
         <f>IF('Concepto Sectorial'!G30=0,"",'Concepto Sectorial'!G30)</f>
         <v/>
       </c>
-      <c r="H29" s="138">
+      <c r="H29" s="144">
         <f>IFERROR(SUM(C29:G29),"")</f>
         <v>0</v>
       </c>
-      <c r="I29" s="138"/>
-      <c r="J29" s="138"/>
-      <c r="K29" s="139"/>
+      <c r="I29" s="144"/>
+      <c r="J29" s="144"/>
+      <c r="K29" s="145"/>
       <c r="L29" s="24"/>
       <c r="M29" s="24"/>
       <c r="N29" s="24"/>
@@ -6706,11 +6694,11 @@
       <c r="B30" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="154">
+      <c r="C30" s="143">
         <f>IFERROR(SUM(C17,C27:D29),"")</f>
         <v>0</v>
       </c>
-      <c r="D30" s="154"/>
+      <c r="D30" s="143"/>
       <c r="E30" s="32">
         <f>IFERROR(SUM(E17,E27:E29),"")</f>
         <v>0</v>
@@ -6723,13 +6711,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H30" s="138">
+      <c r="H30" s="144">
         <f>IFERROR(SUM(C30:G30),"")</f>
         <v>0</v>
       </c>
-      <c r="I30" s="138"/>
-      <c r="J30" s="138"/>
-      <c r="K30" s="139"/>
+      <c r="I30" s="144"/>
+      <c r="J30" s="144"/>
+      <c r="K30" s="145"/>
       <c r="L30" s="24"/>
       <c r="M30" s="24"/>
       <c r="N30" s="24"/>
@@ -6740,16 +6728,16 @@
       <c r="S30" s="24"/>
     </row>
     <row r="31" spans="1:19" customFormat="1" ht="3.75" customHeight="1">
-      <c r="B31" s="75"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="77"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="52"/>
       <c r="L31" s="24"/>
       <c r="M31" s="24"/>
       <c r="N31" s="24"/>
@@ -6760,21 +6748,21 @@
       <c r="S31" s="24"/>
     </row>
     <row r="32" spans="1:19" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="95"/>
-      <c r="B32" s="96" t="s">
+      <c r="A32" s="75"/>
+      <c r="B32" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="97"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="98" t="s">
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="I32" s="99"/>
-      <c r="J32" s="99"/>
-      <c r="K32" s="100"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="80"/>
       <c r="L32" s="24"/>
       <c r="M32" s="24"/>
       <c r="N32" s="24"/>
@@ -6785,17 +6773,17 @@
       <c r="S32" s="24"/>
     </row>
     <row r="33" spans="1:19" customFormat="1">
-      <c r="A33" s="95"/>
-      <c r="B33" s="96"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="97"/>
-      <c r="H33" s="101"/>
-      <c r="I33" s="102"/>
-      <c r="J33" s="102"/>
-      <c r="K33" s="103"/>
+      <c r="A33" s="75"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="82"/>
+      <c r="J33" s="82"/>
+      <c r="K33" s="83"/>
       <c r="L33" s="24"/>
       <c r="M33" s="24"/>
       <c r="N33" s="24"/>
@@ -6806,18 +6794,18 @@
       <c r="S33" s="24"/>
     </row>
     <row r="34" spans="1:19" s="23" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B34" s="90" t="s">
+      <c r="B34" s="88" t="s">
         <v>256</v>
       </c>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="155"/>
-      <c r="I34" s="156"/>
-      <c r="J34" s="156"/>
-      <c r="K34" s="157"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="161"/>
+      <c r="I34" s="162"/>
+      <c r="J34" s="162"/>
+      <c r="K34" s="163"/>
       <c r="L34" s="26"/>
       <c r="M34" s="26"/>
       <c r="N34" s="26"/>
@@ -6828,18 +6816,18 @@
       <c r="S34" s="26"/>
     </row>
     <row r="35" spans="1:19" s="23" customFormat="1" ht="51" customHeight="1">
-      <c r="B35" s="90" t="s">
+      <c r="B35" s="88" t="s">
         <v>257</v>
       </c>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="158"/>
-      <c r="I35" s="159"/>
-      <c r="J35" s="159"/>
-      <c r="K35" s="160"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="161"/>
+      <c r="I35" s="162"/>
+      <c r="J35" s="162"/>
+      <c r="K35" s="163"/>
       <c r="L35" s="26"/>
       <c r="M35" s="26"/>
       <c r="N35" s="26"/>
@@ -6850,18 +6838,18 @@
       <c r="S35" s="26"/>
     </row>
     <row r="36" spans="1:19" s="23" customFormat="1" ht="28.5" customHeight="1">
-      <c r="B36" s="90" t="s">
+      <c r="B36" s="88" t="s">
         <v>258</v>
       </c>
-      <c r="C36" s="91"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="91"/>
-      <c r="F36" s="91"/>
-      <c r="G36" s="91"/>
-      <c r="H36" s="155"/>
-      <c r="I36" s="156"/>
-      <c r="J36" s="156"/>
-      <c r="K36" s="157"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="161"/>
+      <c r="I36" s="162"/>
+      <c r="J36" s="162"/>
+      <c r="K36" s="163"/>
       <c r="L36" s="26"/>
       <c r="M36" s="26"/>
       <c r="N36" s="26"/>
@@ -6872,18 +6860,18 @@
       <c r="S36" s="26"/>
     </row>
     <row r="37" spans="1:19" s="23" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B37" s="90" t="s">
+      <c r="B37" s="88" t="s">
         <v>259</v>
       </c>
-      <c r="C37" s="91"/>
-      <c r="D37" s="91"/>
-      <c r="E37" s="91"/>
-      <c r="F37" s="91"/>
-      <c r="G37" s="91"/>
-      <c r="H37" s="155"/>
-      <c r="I37" s="156"/>
-      <c r="J37" s="156"/>
-      <c r="K37" s="157"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="161"/>
+      <c r="I37" s="162"/>
+      <c r="J37" s="162"/>
+      <c r="K37" s="163"/>
       <c r="L37" s="26"/>
       <c r="M37" s="26"/>
       <c r="N37" s="26"/>
@@ -6894,18 +6882,18 @@
       <c r="S37" s="26"/>
     </row>
     <row r="38" spans="1:19" s="23" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B38" s="90" t="s">
+      <c r="B38" s="88" t="s">
         <v>260</v>
       </c>
-      <c r="C38" s="91"/>
-      <c r="D38" s="91"/>
-      <c r="E38" s="91"/>
-      <c r="F38" s="91"/>
-      <c r="G38" s="91"/>
-      <c r="H38" s="155"/>
-      <c r="I38" s="156"/>
-      <c r="J38" s="156"/>
-      <c r="K38" s="157"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="89"/>
+      <c r="G38" s="89"/>
+      <c r="H38" s="161"/>
+      <c r="I38" s="162"/>
+      <c r="J38" s="162"/>
+      <c r="K38" s="163"/>
       <c r="L38" s="26"/>
       <c r="M38" s="26"/>
       <c r="N38" s="26"/>
@@ -6916,18 +6904,18 @@
       <c r="S38" s="26"/>
     </row>
     <row r="39" spans="1:19" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B39" s="90" t="s">
+      <c r="B39" s="88" t="s">
         <v>261</v>
       </c>
-      <c r="C39" s="91"/>
-      <c r="D39" s="91"/>
-      <c r="E39" s="91"/>
-      <c r="F39" s="91"/>
-      <c r="G39" s="91"/>
-      <c r="H39" s="155"/>
-      <c r="I39" s="156"/>
-      <c r="J39" s="156"/>
-      <c r="K39" s="157"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="161"/>
+      <c r="I39" s="162"/>
+      <c r="J39" s="162"/>
+      <c r="K39" s="163"/>
       <c r="L39" s="26"/>
       <c r="M39" s="26"/>
       <c r="N39" s="26"/>
@@ -6938,18 +6926,18 @@
       <c r="S39" s="26"/>
     </row>
     <row r="40" spans="1:19" s="23" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B40" s="90" t="s">
+      <c r="B40" s="88" t="s">
         <v>262</v>
       </c>
-      <c r="C40" s="91"/>
-      <c r="D40" s="91"/>
-      <c r="E40" s="91"/>
-      <c r="F40" s="91"/>
-      <c r="G40" s="91"/>
-      <c r="H40" s="155"/>
-      <c r="I40" s="156"/>
-      <c r="J40" s="156"/>
-      <c r="K40" s="157"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="161"/>
+      <c r="I40" s="162"/>
+      <c r="J40" s="162"/>
+      <c r="K40" s="163"/>
       <c r="L40" s="26"/>
       <c r="M40" s="26"/>
       <c r="N40" s="26"/>
@@ -6960,18 +6948,18 @@
       <c r="S40" s="26"/>
     </row>
     <row r="41" spans="1:19" s="23" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B41" s="90" t="s">
+      <c r="B41" s="88" t="s">
         <v>263</v>
       </c>
-      <c r="C41" s="91"/>
-      <c r="D41" s="91"/>
-      <c r="E41" s="91"/>
-      <c r="F41" s="91"/>
-      <c r="G41" s="91"/>
-      <c r="H41" s="158"/>
-      <c r="I41" s="159"/>
-      <c r="J41" s="159"/>
-      <c r="K41" s="160"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="89"/>
+      <c r="G41" s="89"/>
+      <c r="H41" s="161"/>
+      <c r="I41" s="162"/>
+      <c r="J41" s="162"/>
+      <c r="K41" s="163"/>
       <c r="L41" s="26"/>
       <c r="M41" s="26"/>
       <c r="N41" s="26"/>
@@ -6982,18 +6970,18 @@
       <c r="S41" s="26"/>
     </row>
     <row r="42" spans="1:19" s="23" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B42" s="161" t="s">
+      <c r="B42" s="140" t="s">
         <v>264</v>
       </c>
-      <c r="C42" s="162"/>
-      <c r="D42" s="162"/>
-      <c r="E42" s="162"/>
-      <c r="F42" s="162"/>
-      <c r="G42" s="163"/>
-      <c r="H42" s="158"/>
-      <c r="I42" s="159"/>
-      <c r="J42" s="159"/>
-      <c r="K42" s="160"/>
+      <c r="C42" s="141"/>
+      <c r="D42" s="141"/>
+      <c r="E42" s="141"/>
+      <c r="F42" s="141"/>
+      <c r="G42" s="142"/>
+      <c r="H42" s="161"/>
+      <c r="I42" s="162"/>
+      <c r="J42" s="162"/>
+      <c r="K42" s="163"/>
       <c r="L42" s="26"/>
       <c r="M42" s="26"/>
       <c r="N42" s="26"/>
@@ -7004,18 +6992,18 @@
       <c r="S42" s="26"/>
     </row>
     <row r="43" spans="1:19" s="23" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B43" s="90" t="s">
+      <c r="B43" s="88" t="s">
         <v>265</v>
       </c>
-      <c r="C43" s="91"/>
-      <c r="D43" s="91"/>
-      <c r="E43" s="91"/>
-      <c r="F43" s="91"/>
-      <c r="G43" s="91"/>
-      <c r="H43" s="158"/>
-      <c r="I43" s="159"/>
-      <c r="J43" s="159"/>
-      <c r="K43" s="160"/>
+      <c r="C43" s="89"/>
+      <c r="D43" s="89"/>
+      <c r="E43" s="89"/>
+      <c r="F43" s="89"/>
+      <c r="G43" s="89"/>
+      <c r="H43" s="161"/>
+      <c r="I43" s="162"/>
+      <c r="J43" s="162"/>
+      <c r="K43" s="163"/>
       <c r="L43" s="26"/>
       <c r="M43" s="26"/>
       <c r="N43" s="26"/>
@@ -7026,18 +7014,18 @@
       <c r="S43" s="26"/>
     </row>
     <row r="44" spans="1:19" s="23" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B44" s="90" t="s">
+      <c r="B44" s="88" t="s">
         <v>266</v>
       </c>
-      <c r="C44" s="91"/>
-      <c r="D44" s="91"/>
-      <c r="E44" s="91"/>
-      <c r="F44" s="91"/>
-      <c r="G44" s="91"/>
-      <c r="H44" s="155"/>
-      <c r="I44" s="156"/>
-      <c r="J44" s="156"/>
-      <c r="K44" s="157"/>
+      <c r="C44" s="89"/>
+      <c r="D44" s="89"/>
+      <c r="E44" s="89"/>
+      <c r="F44" s="89"/>
+      <c r="G44" s="89"/>
+      <c r="H44" s="161"/>
+      <c r="I44" s="162"/>
+      <c r="J44" s="162"/>
+      <c r="K44" s="163"/>
       <c r="L44" s="26"/>
       <c r="M44" s="26"/>
       <c r="N44" s="26"/>
@@ -7048,18 +7036,18 @@
       <c r="S44" s="26"/>
     </row>
     <row r="45" spans="1:19" s="23" customFormat="1" ht="17.25" customHeight="1">
-      <c r="B45" s="90" t="s">
+      <c r="B45" s="88" t="s">
         <v>267</v>
       </c>
-      <c r="C45" s="91"/>
-      <c r="D45" s="91"/>
-      <c r="E45" s="91"/>
-      <c r="F45" s="91"/>
-      <c r="G45" s="91"/>
-      <c r="H45" s="158"/>
-      <c r="I45" s="159"/>
-      <c r="J45" s="159"/>
-      <c r="K45" s="160"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="89"/>
+      <c r="E45" s="89"/>
+      <c r="F45" s="89"/>
+      <c r="G45" s="89"/>
+      <c r="H45" s="161"/>
+      <c r="I45" s="162"/>
+      <c r="J45" s="162"/>
+      <c r="K45" s="163"/>
       <c r="L45" s="26"/>
       <c r="M45" s="26"/>
       <c r="N45" s="26"/>
@@ -7070,18 +7058,18 @@
       <c r="S45" s="26"/>
     </row>
     <row r="46" spans="1:19" s="23" customFormat="1" ht="36.75" customHeight="1">
-      <c r="B46" s="90" t="s">
+      <c r="B46" s="88" t="s">
         <v>268</v>
       </c>
-      <c r="C46" s="91"/>
-      <c r="D46" s="91"/>
-      <c r="E46" s="91"/>
-      <c r="F46" s="91"/>
-      <c r="G46" s="91"/>
-      <c r="H46" s="158"/>
-      <c r="I46" s="159"/>
-      <c r="J46" s="159"/>
-      <c r="K46" s="160"/>
+      <c r="C46" s="89"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="89"/>
+      <c r="F46" s="89"/>
+      <c r="G46" s="89"/>
+      <c r="H46" s="161"/>
+      <c r="I46" s="162"/>
+      <c r="J46" s="162"/>
+      <c r="K46" s="163"/>
       <c r="L46" s="26"/>
       <c r="M46" s="26"/>
       <c r="N46" s="26"/>
@@ -7092,16 +7080,16 @@
       <c r="S46" s="26"/>
     </row>
     <row r="47" spans="1:19" customFormat="1" ht="6.75" customHeight="1">
-      <c r="B47" s="75"/>
-      <c r="C47" s="76"/>
-      <c r="D47" s="76"/>
-      <c r="E47" s="76"/>
-      <c r="F47" s="76"/>
-      <c r="G47" s="76"/>
-      <c r="H47" s="76"/>
-      <c r="I47" s="76"/>
-      <c r="J47" s="76"/>
-      <c r="K47" s="77"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="52"/>
       <c r="L47" s="24"/>
       <c r="M47" s="24"/>
       <c r="N47" s="24"/>
@@ -7112,18 +7100,18 @@
       <c r="S47" s="24"/>
     </row>
     <row r="48" spans="1:19" customFormat="1">
-      <c r="B48" s="78" t="s">
+      <c r="B48" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="C48" s="79"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="79"/>
-      <c r="F48" s="79"/>
-      <c r="G48" s="79"/>
-      <c r="H48" s="79"/>
-      <c r="I48" s="79"/>
-      <c r="J48" s="79"/>
-      <c r="K48" s="80"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="93"/>
       <c r="L48" s="24"/>
       <c r="M48" s="24"/>
       <c r="N48" s="24"/>
@@ -7134,16 +7122,16 @@
       <c r="S48" s="24"/>
     </row>
     <row r="49" spans="2:19" customFormat="1" ht="3.75" customHeight="1">
-      <c r="B49" s="81"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="82"/>
-      <c r="F49" s="82"/>
-      <c r="G49" s="82"/>
-      <c r="H49" s="82"/>
-      <c r="I49" s="82"/>
-      <c r="J49" s="82"/>
-      <c r="K49" s="83"/>
+      <c r="B49" s="94"/>
+      <c r="C49" s="95"/>
+      <c r="D49" s="95"/>
+      <c r="E49" s="95"/>
+      <c r="F49" s="95"/>
+      <c r="G49" s="95"/>
+      <c r="H49" s="95"/>
+      <c r="I49" s="95"/>
+      <c r="J49" s="95"/>
+      <c r="K49" s="96"/>
       <c r="L49" s="24"/>
       <c r="M49" s="24"/>
       <c r="N49" s="24"/>
@@ -7154,16 +7142,16 @@
       <c r="S49" s="24"/>
     </row>
     <row r="50" spans="2:19" customFormat="1" ht="8.25" customHeight="1">
-      <c r="B50" s="69"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="70"/>
-      <c r="H50" s="70"/>
-      <c r="I50" s="70"/>
-      <c r="J50" s="70"/>
-      <c r="K50" s="71"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="117"/>
+      <c r="D50" s="117"/>
+      <c r="E50" s="117"/>
+      <c r="F50" s="117"/>
+      <c r="G50" s="117"/>
+      <c r="H50" s="117"/>
+      <c r="I50" s="117"/>
+      <c r="J50" s="117"/>
+      <c r="K50" s="118"/>
       <c r="L50" s="24"/>
       <c r="M50" s="24"/>
       <c r="N50" s="24"/>
@@ -7174,18 +7162,18 @@
       <c r="S50" s="24"/>
     </row>
     <row r="51" spans="2:19" customFormat="1" ht="15.75">
-      <c r="B51" s="164" t="s">
+      <c r="B51" s="137" t="s">
         <v>905</v>
       </c>
-      <c r="C51" s="165"/>
-      <c r="D51" s="165"/>
-      <c r="E51" s="165"/>
-      <c r="F51" s="165"/>
-      <c r="G51" s="165"/>
-      <c r="H51" s="165"/>
-      <c r="I51" s="165"/>
-      <c r="J51" s="165"/>
-      <c r="K51" s="166"/>
+      <c r="C51" s="138"/>
+      <c r="D51" s="138"/>
+      <c r="E51" s="138"/>
+      <c r="F51" s="138"/>
+      <c r="G51" s="138"/>
+      <c r="H51" s="138"/>
+      <c r="I51" s="138"/>
+      <c r="J51" s="138"/>
+      <c r="K51" s="139"/>
       <c r="L51" s="24"/>
       <c r="M51" s="24"/>
       <c r="N51" s="24"/>
@@ -7196,16 +7184,16 @@
       <c r="S51" s="24"/>
     </row>
     <row r="52" spans="2:19" customFormat="1" ht="3.75" customHeight="1">
-      <c r="B52" s="54"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="55"/>
-      <c r="I52" s="55"/>
-      <c r="J52" s="55"/>
-      <c r="K52" s="56"/>
+      <c r="B52" s="103"/>
+      <c r="C52" s="104"/>
+      <c r="D52" s="104"/>
+      <c r="E52" s="104"/>
+      <c r="F52" s="104"/>
+      <c r="G52" s="104"/>
+      <c r="H52" s="104"/>
+      <c r="I52" s="104"/>
+      <c r="J52" s="104"/>
+      <c r="K52" s="105"/>
       <c r="L52" s="24"/>
       <c r="M52" s="24"/>
       <c r="N52" s="24"/>
@@ -7216,18 +7204,18 @@
       <c r="S52" s="24"/>
     </row>
     <row r="53" spans="2:19" customFormat="1" ht="15.75">
-      <c r="B53" s="39" t="s">
+      <c r="B53" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="40"/>
-      <c r="K53" s="41"/>
+      <c r="C53" s="123"/>
+      <c r="D53" s="123"/>
+      <c r="E53" s="123"/>
+      <c r="F53" s="123"/>
+      <c r="G53" s="123"/>
+      <c r="H53" s="123"/>
+      <c r="I53" s="123"/>
+      <c r="J53" s="123"/>
+      <c r="K53" s="124"/>
       <c r="L53" s="24"/>
       <c r="M53" s="27"/>
       <c r="N53" s="24"/>
@@ -7238,16 +7226,16 @@
       <c r="S53" s="24"/>
     </row>
     <row r="54" spans="2:19" customFormat="1" ht="3.75" customHeight="1">
-      <c r="B54" s="42"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="43"/>
-      <c r="I54" s="43"/>
-      <c r="J54" s="43"/>
-      <c r="K54" s="44"/>
+      <c r="B54" s="125"/>
+      <c r="C54" s="126"/>
+      <c r="D54" s="126"/>
+      <c r="E54" s="126"/>
+      <c r="F54" s="126"/>
+      <c r="G54" s="126"/>
+      <c r="H54" s="126"/>
+      <c r="I54" s="126"/>
+      <c r="J54" s="126"/>
+      <c r="K54" s="127"/>
       <c r="L54" s="24"/>
       <c r="M54" s="24"/>
       <c r="N54" s="24"/>
@@ -7258,18 +7246,18 @@
       <c r="S54" s="24"/>
     </row>
     <row r="55" spans="2:19" customFormat="1" ht="15.75">
-      <c r="B55" s="45" t="s">
+      <c r="B55" s="128" t="s">
         <v>270</v>
       </c>
-      <c r="C55" s="46"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="46"/>
-      <c r="I55" s="46"/>
-      <c r="J55" s="46"/>
-      <c r="K55" s="47"/>
+      <c r="C55" s="129"/>
+      <c r="D55" s="129"/>
+      <c r="E55" s="129"/>
+      <c r="F55" s="129"/>
+      <c r="G55" s="129"/>
+      <c r="H55" s="129"/>
+      <c r="I55" s="129"/>
+      <c r="J55" s="129"/>
+      <c r="K55" s="130"/>
       <c r="L55" s="24"/>
       <c r="M55" s="27"/>
       <c r="N55" s="24"/>
@@ -7280,18 +7268,18 @@
       <c r="S55" s="24"/>
     </row>
     <row r="56" spans="2:19" customFormat="1" ht="50.25" customHeight="1">
-      <c r="B56" s="48" t="s">
+      <c r="B56" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="49"/>
-      <c r="J56" s="49"/>
-      <c r="K56" s="50"/>
+      <c r="C56" s="132"/>
+      <c r="D56" s="132"/>
+      <c r="E56" s="132"/>
+      <c r="F56" s="132"/>
+      <c r="G56" s="132"/>
+      <c r="H56" s="132"/>
+      <c r="I56" s="132"/>
+      <c r="J56" s="132"/>
+      <c r="K56" s="133"/>
       <c r="L56" s="24"/>
       <c r="M56" s="24"/>
       <c r="N56" s="24"/>
@@ -7302,18 +7290,18 @@
       <c r="S56" s="24"/>
     </row>
     <row r="57" spans="2:19" customFormat="1" ht="36" customHeight="1" thickBot="1">
-      <c r="B57" s="51" t="s">
+      <c r="B57" s="134" t="s">
         <v>915</v>
       </c>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="52"/>
-      <c r="H57" s="52"/>
-      <c r="I57" s="52"/>
-      <c r="J57" s="52"/>
-      <c r="K57" s="53"/>
+      <c r="C57" s="135"/>
+      <c r="D57" s="135"/>
+      <c r="E57" s="135"/>
+      <c r="F57" s="135"/>
+      <c r="G57" s="135"/>
+      <c r="H57" s="135"/>
+      <c r="I57" s="135"/>
+      <c r="J57" s="135"/>
+      <c r="K57" s="136"/>
       <c r="L57" s="24"/>
       <c r="M57" s="24"/>
       <c r="N57" s="24"/>
@@ -7335,43 +7323,42 @@
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="B56:K56"/>
-    <mergeCell ref="B57:K57"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="H45:K45"/>
-    <mergeCell ref="B50:K50"/>
-    <mergeCell ref="B51:K51"/>
-    <mergeCell ref="B52:K52"/>
-    <mergeCell ref="B47:K47"/>
-    <mergeCell ref="B48:K48"/>
-    <mergeCell ref="B49:K49"/>
-    <mergeCell ref="B53:K53"/>
-    <mergeCell ref="B54:K54"/>
-    <mergeCell ref="B55:K55"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="C12:K12"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="B32:G33"/>
     <mergeCell ref="H32:K33"/>
@@ -7388,42 +7375,43 @@
     <mergeCell ref="B31:K31"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:K16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="B56:K56"/>
+    <mergeCell ref="B57:K57"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="B50:K50"/>
+    <mergeCell ref="B51:K51"/>
+    <mergeCell ref="B52:K52"/>
+    <mergeCell ref="B47:K47"/>
+    <mergeCell ref="B48:K48"/>
+    <mergeCell ref="B49:K49"/>
+    <mergeCell ref="B53:K53"/>
+    <mergeCell ref="B54:K54"/>
+    <mergeCell ref="B55:K55"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H35:K35 H41:K43 H45:K45" xr:uid="{851E0558-B45C-4494-B825-A171BBDC843C}">
